--- a/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,22</t>
+          <t>1,43; 4,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,63</t>
+          <t>0,97; 3,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,82</t>
+          <t>0,0; 4,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,44</t>
+          <t>1,45; 4,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,7</t>
+          <t>2,03; 6,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,67</t>
+          <t>1,95; 5,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,62</t>
+          <t>0,78; 5,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,87</t>
+          <t>1,73; 3,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,0</t>
+          <t>1,65; 3,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,49</t>
+          <t>1,32; 3,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,87</t>
+          <t>0,72; 3,93</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,67</t>
+          <t>1,91; 4,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,55</t>
+          <t>2,46; 5,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,54</t>
+          <t>1,58; 4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,39</t>
+          <t>1,78; 6,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,78</t>
+          <t>4,08; 8,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,56</t>
+          <t>2,91; 6,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,53</t>
+          <t>2,89; 6,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,87</t>
+          <t>0,62; 2,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,63</t>
+          <t>3,21; 5,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,37</t>
+          <t>3,1; 5,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,79</t>
+          <t>2,56; 4,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,67</t>
+          <t>1,45; 3,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,81</t>
+          <t>3,37; 6,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,8</t>
+          <t>4,12; 7,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,37</t>
+          <t>3,8; 7,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,87</t>
+          <t>3,72; 7,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,46</t>
+          <t>5,48; 9,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 13,03</t>
+          <t>8,43; 12,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,21</t>
+          <t>5,22; 9,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,01</t>
+          <t>5,25; 8,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,61</t>
+          <t>4,94; 7,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,8</t>
+          <t>6,81; 9,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,95</t>
+          <t>5,1; 7,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,78</t>
+          <t>5,11; 7,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 13,02</t>
+          <t>7,41; 12,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,45</t>
+          <t>8,37; 13,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,73; 14,94</t>
+          <t>9,56; 14,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 38,49</t>
+          <t>10,38; 34,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,49</t>
+          <t>13,14; 19,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 20,11</t>
+          <t>13,33; 19,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 17,72</t>
+          <t>11,86; 17,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,94; 16,14</t>
+          <t>10,81; 16,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 15,09</t>
+          <t>11,01; 15,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 15,57</t>
+          <t>11,86; 15,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,54; 15,43</t>
+          <t>11,61; 15,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 25,37</t>
+          <t>11,5; 25,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,77; 28,97</t>
+          <t>20,69; 29,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,61; 24,57</t>
+          <t>16,71; 24,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,51; 24,35</t>
+          <t>16,1; 24,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,82</t>
+          <t>18,26; 24,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,04; 35,27</t>
+          <t>26,42; 35,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,02; 41,08</t>
+          <t>31,83; 41,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,86; 36,25</t>
+          <t>27,37; 35,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,97; 28,38</t>
+          <t>22,84; 28,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,94; 31,37</t>
+          <t>24,88; 31,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,63; 32,02</t>
+          <t>25,78; 32,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,1; 29,17</t>
+          <t>23,64; 29,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,45; 25,86</t>
+          <t>21,35; 25,7</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,99; 52,65</t>
+          <t>44,07; 52,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,77; 58,7</t>
+          <t>50,27; 59,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,56; 49,12</t>
+          <t>40,55; 48,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,65; 41,11</t>
+          <t>34,99; 41,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,55; 73,97</t>
+          <t>67,11; 73,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,3; 74,83</t>
+          <t>68,36; 75,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,17; 64,04</t>
+          <t>56,21; 63,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,37; 61,08</t>
+          <t>37,16; 60,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,46; 63,97</t>
+          <t>58,54; 64,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61,84; 67,25</t>
+          <t>61,76; 67,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,47; 55,98</t>
+          <t>50,57; 55,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,25; 51,06</t>
+          <t>37,12; 51,24</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,11</t>
+          <t>12,77; 15,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,92</t>
+          <t>14,47; 16,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,71</t>
+          <t>13,31; 15,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,74</t>
+          <t>15,04; 21,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,79</t>
+          <t>21,88; 24,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,35; 27,28</t>
+          <t>24,17; 27,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,44; 24,46</t>
+          <t>21,26; 24,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,25; 23,74</t>
+          <t>19,82; 23,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,66</t>
+          <t>17,74; 19,55</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,85; 21,87</t>
+          <t>19,82; 21,9</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,74</t>
+          <t>17,86; 19,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,63; 21,71</t>
+          <t>18,57; 21,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,07</t>
+          <t>1,33; 4,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,86</t>
+          <t>1,02; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,32</t>
+          <t>0,23; 2,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,43</t>
+          <t>1,49; 4,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,07</t>
+          <t>2,05; 5,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,81</t>
+          <t>1,95; 5,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,84</t>
+          <t>1,75; 3,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,96</t>
+          <t>1,72; 4,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,3</t>
+          <t>1,21; 3,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,71</t>
+          <t>1,9; 4,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,59</t>
+          <t>2,65; 5,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,43</t>
+          <t>1,6; 4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,02</t>
+          <t>4,01; 8,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,51</t>
+          <t>2,92; 6,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,41</t>
+          <t>2,73; 6,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,54</t>
+          <t>3,28; 5,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,49</t>
+          <t>3,02; 5,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,75</t>
+          <t>2,59; 4,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,91</t>
+          <t>3,46; 6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,98</t>
+          <t>4,03; 7,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,47</t>
+          <t>3,69; 7,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,66</t>
+          <t>5,6; 9,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,9</t>
+          <t>8,35; 13,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,48</t>
+          <t>5,49; 9,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 7,61</t>
+          <t>5,05; 7,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 9,82</t>
+          <t>6,84; 9,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 7,79</t>
+          <t>5,05; 7,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,8</t>
+          <t>7,59; 12,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,63</t>
+          <t>8,09; 13,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,56; 14,99</t>
+          <t>9,57; 14,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,14; 19,3</t>
+          <t>12,98; 19,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,72</t>
+          <t>13,41; 19,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 17,56</t>
+          <t>12,04; 17,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 15,07</t>
+          <t>10,85; 15,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 15,76</t>
+          <t>11,75; 15,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,61; 15,33</t>
+          <t>11,39; 15,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 29,21</t>
+          <t>20,77; 29,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 24,77</t>
+          <t>16,27; 24,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,1; 24,05</t>
+          <t>16,51; 24,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,42; 35,51</t>
+          <t>26,31; 35,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,83; 41,38</t>
+          <t>32,17; 41,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,37; 35,99</t>
+          <t>27,67; 36,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,88; 31,33</t>
+          <t>24,93; 31,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,78; 32,01</t>
+          <t>25,5; 31,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,64; 29,27</t>
+          <t>23,41; 29,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,27; 59,29</t>
+          <t>50,26; 59,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,55; 48,03</t>
+          <t>40,54; 48,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,11; 73,82</t>
+          <t>66,97; 74,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,36; 75,1</t>
+          <t>68,23; 75,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,21; 63,62</t>
+          <t>56,26; 64,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,54; 64,32</t>
+          <t>58,27; 63,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61,76; 67,19</t>
+          <t>61,7; 67,15</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,57; 55,99</t>
+          <t>50,67; 56,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,32</t>
+          <t>12,77; 15,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,47; 16,97</t>
+          <t>14,3; 16,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,76</t>
+          <t>13,29; 15,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,88; 24,69</t>
+          <t>21,78; 24,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,17; 27,18</t>
+          <t>24,22; 27,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,26; 24,24</t>
+          <t>21,39; 24,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,74; 19,55</t>
+          <t>17,8; 19,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,82; 21,9</t>
+          <t>19,77; 21,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 19,71</t>
+          <t>17,73; 19,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,4</t>
+          <t>1,37; 4,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,74</t>
+          <t>0,91; 3,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,21</t>
+          <t>0,23; 2,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,75</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,69</t>
+          <t>1,36; 4,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,71</t>
+          <t>2,05; 5,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,64</t>
+          <t>1,96; 5,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,49</t>
+          <t>0,61; 5,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,78</t>
+          <t>1,73; 3,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,02</t>
+          <t>1,77; 4,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,37</t>
+          <t>1,3; 3,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,93</t>
+          <t>0,69; 3,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,76</t>
+          <t>1,86; 4,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,55</t>
+          <t>2,54; 5,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,43</t>
+          <t>1,59; 4,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,23</t>
+          <t>1,74; 6,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,28</t>
+          <t>3,91; 7,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>2,91; 6,56</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>2,92; 6,53</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 6,32</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,79</t>
+          <t>0,6; 2,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,67</t>
+          <t>3,2; 5,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,44</t>
+          <t>3,16; 5,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,78</t>
+          <t>2,55; 4,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,77</t>
+          <t>1,4; 3,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,94</t>
+          <t>3,33; 6,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,63</t>
+          <t>4,05; 7,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,26</t>
+          <t>3,74; 7,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,94</t>
+          <t>3,72; 7,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,61</t>
+          <t>5,56; 9,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 13,34</t>
+          <t>8,32; 13,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 9,69</t>
+          <t>5,39; 9,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,93</t>
+          <t>5,35; 9,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,85</t>
+          <t>4,92; 7,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,75</t>
+          <t>6,84; 9,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,83</t>
+          <t>5,13; 7,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,99</t>
+          <t>5,06; 7,78</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,7</t>
+          <t>7,48; 13,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 13,29</t>
+          <t>8,27; 13,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 14,77</t>
+          <t>9,73; 14,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,38; 34,41</t>
+          <t>10,7; 38,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 19,59</t>
+          <t>13,01; 19,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 19,77</t>
+          <t>13,69; 20,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 17,77</t>
+          <t>11,91; 17,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,12</t>
+          <t>10,94; 16,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,08</t>
+          <t>10,97; 15,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,78</t>
+          <t>11,71; 15,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,39; 15,69</t>
+          <t>11,54; 15,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 25,89</t>
+          <t>11,43; 25,37</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,77; 29,08</t>
+          <t>20,77; 28,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,27; 24,36</t>
+          <t>16,61; 24,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,51; 24,46</t>
+          <t>16,51; 24,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,26; 24,78</t>
+          <t>18,18; 24,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,31; 35,77</t>
+          <t>26,04; 35,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,17; 41,51</t>
+          <t>32,02; 41,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,67; 36,64</t>
+          <t>27,86; 36,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,84; 28,61</t>
+          <t>22,97; 28,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,93; 31,33</t>
+          <t>24,94; 31,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,5; 31,67</t>
+          <t>25,63; 32,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,41; 29,2</t>
+          <t>23,1; 29,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 25,7</t>
+          <t>21,45; 25,86</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,07; 52,72</t>
+          <t>43,99; 52,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,26; 59,15</t>
+          <t>49,77; 58,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,54; 48,21</t>
+          <t>40,56; 49,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,99; 41,02</t>
+          <t>34,65; 41,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>66,97; 74,23</t>
+          <t>67,55; 73,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,23; 75,01</t>
+          <t>68,3; 74,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,26; 64,01</t>
+          <t>56,17; 64,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,16; 60,85</t>
+          <t>39,37; 61,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,27; 63,91</t>
+          <t>58,46; 63,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61,7; 67,15</t>
+          <t>61,84; 67,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,67; 56,05</t>
+          <t>50,47; 55,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,12; 51,24</t>
+          <t>36,25; 51,06</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,2</t>
+          <t>12,69; 15,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,3; 16,85</t>
+          <t>14,32; 16,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,29; 15,7</t>
+          <t>13,37; 15,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,63</t>
+          <t>15,13; 21,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,78; 24,66</t>
+          <t>22,0; 24,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,19</t>
+          <t>24,35; 27,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,39; 24,36</t>
+          <t>21,44; 24,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,82; 23,69</t>
+          <t>20,25; 23,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,8; 19,68</t>
+          <t>17,67; 19,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,77; 21,78</t>
+          <t>19,85; 21,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,73; 19,66</t>
+          <t>17,78; 19,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,57; 21,95</t>
+          <t>18,63; 21,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,82</t>
+          <t>0,0; 5,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,62</t>
+          <t>0,55; 5,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,87</t>
+          <t>0,65; 3,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,39</t>
+          <t>1,69; 6,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,87</t>
+          <t>0,49; 2,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,67</t>
+          <t>1,31; 3,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,87</t>
+          <t>3,74; 7,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,01</t>
+          <t>4,71; 8,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,78</t>
+          <t>4,88; 7,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>25,29%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 38,49</t>
+          <t>10,56; 71,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,94; 16,14</t>
+          <t>10,13; 15,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 25,37</t>
+          <t>11,05; 53,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>23,41%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,82</t>
+          <t>18,24; 24,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,97; 28,38</t>
+          <t>22,79; 28,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,45; 25,86</t>
+          <t>21,47; 25,87</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70,81%</t>
+          <t>61,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,78%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>60,17%</t>
+          <t>47,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>53,59%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>50,91%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>53,29%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>26,37%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,99; 52,65</t>
+          <t>29,66; 39,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,77; 58,7</t>
+          <t>36,17; 47,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,56; 49,12</t>
+          <t>29,39; 39,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,65; 41,11</t>
+          <t>21,57; 29,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,55; 73,97</t>
+          <t>55,67; 66,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,3; 74,83</t>
+          <t>53,34; 64,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,17; 64,04</t>
+          <t>43,13; 52,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,37; 61,08</t>
+          <t>9,49; 41,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,46; 63,97</t>
+          <t>44,96; 52,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61,84; 67,25</t>
+          <t>46,87; 54,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,47; 55,98</t>
+          <t>37,92; 44,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,25; 51,06</t>
+          <t>12,22; 33,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>71,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>57,42%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>54,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>75,57%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>66,16%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>68,5%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>61,39; 73,52</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>64,76; 76,81</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>51,28; 63,09</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>49,0; 58,8</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>75,28; 84,81</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79,15; 87,28</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>66,57; 76,8</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>74,85; 80,55</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>71,86; 79,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>74,81; 81,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>62,48; 70,28</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>65,78; 71,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21,24%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23,25%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25,74%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18,66%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>12,69; 15,11</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>14,32; 16,92</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>13,37; 15,71</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>15,13; 21,74</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 41,87</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>22,0; 24,79</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>24,35; 27,28</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>21,44; 24,46</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>20,25; 23,74</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16,66; 22,77</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>17,67; 19,66</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>19,85; 21,87</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>17,78; 19,74</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>18,63; 21,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17,85; 31,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,22</t>
+          <t>1,48; 4,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,63</t>
+          <t>0,85; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,32</t>
+          <t>0,23; 2,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,06</t>
+          <t>0,0; 6,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,44</t>
+          <t>1,48; 4,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,7</t>
+          <t>2,08; 5,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,67</t>
+          <t>2,04; 5,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,13</t>
+          <t>0,61; 5,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,87</t>
+          <t>1,74; 3,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,0</t>
+          <t>1,82; 3,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,49</t>
+          <t>1,33; 3,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,88</t>
+          <t>0,63; 3,83</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,67</t>
+          <t>1,85; 4,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,55</t>
+          <t>2,58; 5,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,54</t>
+          <t>1,6; 4,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,45</t>
+          <t>1,75; 5,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,78</t>
+          <t>3,98; 8,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,56</t>
+          <t>2,87; 6,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,53</t>
+          <t>2,93; 6,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,59</t>
+          <t>0,48; 2,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,63</t>
+          <t>3,28; 5,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,37</t>
+          <t>3,12; 5,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,79</t>
+          <t>2,54; 4,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,66</t>
+          <t>1,24; 3,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,81</t>
+          <t>3,48; 6,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,8</t>
+          <t>4,01; 7,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,37</t>
+          <t>3,9; 7,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,95</t>
+          <t>3,84; 7,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,46</t>
+          <t>5,54; 9,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 13,03</t>
+          <t>8,6; 13,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,21</t>
+          <t>5,4; 9,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,55</t>
+          <t>4,73; 8,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,61</t>
+          <t>4,99; 7,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,8</t>
+          <t>6,83; 9,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,95</t>
+          <t>4,97; 7,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,63</t>
+          <t>4,76; 7,57</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 13,02</t>
+          <t>7,43; 12,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,45</t>
+          <t>8,28; 13,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,73; 14,94</t>
+          <t>9,41; 14,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 71,98</t>
+          <t>10,36; 71,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,49</t>
+          <t>13,05; 19,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 20,11</t>
+          <t>13,7; 20,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 17,72</t>
+          <t>12,05; 17,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,13; 15,21</t>
+          <t>9,83; 15,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 15,09</t>
+          <t>11,08; 15,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 15,57</t>
+          <t>11,64; 15,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,54; 15,43</t>
+          <t>11,45; 15,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 53,07</t>
+          <t>11,36; 55,83</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,77; 28,97</t>
+          <t>20,6; 29,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,61; 24,57</t>
+          <t>16,87; 24,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,51; 24,35</t>
+          <t>16,71; 24,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,24; 24,82</t>
+          <t>18,32; 24,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,04; 35,27</t>
+          <t>26,56; 35,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,02; 41,08</t>
+          <t>31,57; 41,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,86; 36,25</t>
+          <t>27,58; 36,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,79; 28,22</t>
+          <t>22,62; 28,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,94; 31,37</t>
+          <t>24,73; 31,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,63; 32,02</t>
+          <t>25,61; 32,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,1; 29,17</t>
+          <t>23,36; 29,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,47; 25,87</t>
+          <t>21,23; 25,73</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,66; 39,78</t>
+          <t>29,66; 40,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,17; 47,71</t>
+          <t>36,4; 48,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,39; 39,49</t>
+          <t>29,46; 39,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,57; 29,03</t>
+          <t>22,21; 29,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,67; 66,26</t>
+          <t>56,06; 66,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,34; 64,12</t>
+          <t>54,34; 64,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,13; 52,98</t>
+          <t>42,42; 53,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,49; 41,43</t>
+          <t>11,37; 41,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,96; 52,68</t>
+          <t>44,93; 52,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>46,87; 54,96</t>
+          <t>46,97; 54,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37,92; 44,9</t>
+          <t>37,76; 45,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,22; 33,98</t>
+          <t>12,64; 34,16</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,39; 73,52</t>
+          <t>61,11; 73,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>64,76; 76,81</t>
+          <t>64,77; 76,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,28; 63,09</t>
+          <t>51,46; 63,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,0; 58,8</t>
+          <t>50,3; 59,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,28; 84,81</t>
+          <t>75,54; 84,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,15; 87,28</t>
+          <t>79,22; 87,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>66,57; 76,8</t>
+          <t>67,05; 76,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>74,85; 80,55</t>
+          <t>75,15; 80,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,86; 79,15</t>
+          <t>71,24; 78,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,81; 81,69</t>
+          <t>74,91; 81,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>62,48; 70,28</t>
+          <t>61,8; 70,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>65,78; 71,11</t>
+          <t>65,94; 71,02</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,11</t>
+          <t>12,84; 15,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,92</t>
+          <t>14,38; 16,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,71</t>
+          <t>13,3; 15,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,87; 41,87</t>
+          <t>14,82; 38,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,79</t>
+          <t>21,77; 24,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,35; 27,28</t>
+          <t>24,1; 27,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,44; 24,46</t>
+          <t>21,43; 24,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,77</t>
+          <t>16,9; 22,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,66</t>
+          <t>17,7; 19,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,85; 21,87</t>
+          <t>19,75; 21,65</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,74</t>
+          <t>17,69; 19,71</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,85; 31,08</t>
+          <t>17,73; 31,44</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a subir varios pisos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12576</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8833</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3402</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5534</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12284</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15407</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6774</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24860</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24240</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17402</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12308</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7308; 21789</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3847; 16990</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>969; 10007</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24889</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6898; 21224</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8961; 24183</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8079; 22349</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1909; 16964</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16736; 36620</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16112; 35009</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10842; 28258</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4469; 27343</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22273</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26397</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16232</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14449</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35776</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26887</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24579</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6479</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>58048</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>53285</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>40811</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20928</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13626; 34212</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17704; 38459</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9455; 25834</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7393; 24851</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24865; 50176</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17532; 38969</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16517; 35774</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2444; 13143</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44688; 75092</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40503; 69663</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29339; 54994</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11593; 33904</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31690</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>38767</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36080</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29976</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>50367</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>75281</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48010</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38955</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>82057</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>114048</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>84090</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>68931</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22233; 43434</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27271; 52283</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26096; 48645</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20588; 41506</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38225; 64655</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>61142; 94799</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35731; 62521</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27984; 49884</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66270; 102543</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>94948; 135908</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>66172; 103638</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>53685; 85329</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>50909</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65287</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>77788</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>316821</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>83175</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>102443</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>95271</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>88047</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>134084</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>167730</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>173059</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>404868</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38565; 67317</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>50860; 82767</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>60779; 95677</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>92016; 633027</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67309; 101714</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>84435; 123641</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>78189; 116012</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>70054; 107641</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>114649; 157623</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>143224; 193297</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>148265; 197302</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>181824; 893693</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>95760</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>87017</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>96851</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>120540</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>124721</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>163137</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>158717</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>139154</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>220481</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>250154</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>255568</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>259694</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>79675; 114836</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>72093; 106484</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>79878; 116617</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>102792; 140107</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>107306; 143316</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>141358; 185610</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>137020; 181600</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>123931; 154634</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>195506; 247293</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>224135; 281892</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>227685; 287583</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>235420; 285399</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>100963</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>128842</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>114065</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>93586</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>210503</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>209109</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>180856</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>163719</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>311465</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>337951</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>294920</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>257305</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>86770; 118433</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>112758; 148901</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>98477; 132658</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>81600; 108224</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>192242; 227662</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>192345; 228281</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>160230; 201898</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>69195; 254085</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>285530; 334316</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>311765; 363121</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>268851; 323360</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>123313; 333315</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>142146</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>177621</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>147563</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>153753</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>268773</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>323450</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>287238</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>331274</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>410919</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>434802</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>485027</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>128255; 153764</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>161830; 191975</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>132249; 161905</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>142214; 167450</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>252223; 282475</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>307269; 337481</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>268300; 307304</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>319602; 343365</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>387420; 428128</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>477716; 522814</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>406123; 460371</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>466874; 502856</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>456316</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>532763</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>491981</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>734659</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>785598</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>915715</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>808672</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>774402</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1241913</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1448478</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1300652</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1509061</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>420700; 495339</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>492333; 579094</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>451351; 536199</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>512669; 1328973</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>735747; 838704</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>857459; 969377</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>759547; 863753</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>627069; 843638</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1178324; 1310043</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1378450; 1511431</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1227561; 1367649</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1271347; 2254535</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>